--- a/results/mp/deberta/corona/confidence/126/stop-words-topk-desired-masking-0.35/avg_0.004_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/126/stop-words-topk-desired-masking-0.35/avg_0.004_scores.xlsx
@@ -88,22 +88,22 @@
     <t>support</t>
   </si>
   <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
     <t>help</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>love</t>
   </si>
   <si>
     <t>share</t>
@@ -1059,13 +1059,13 @@
         <v>24</v>
       </c>
       <c r="K11">
-        <v>0.7577092511013216</v>
+        <v>0.7528089887640449</v>
       </c>
       <c r="L11">
-        <v>172</v>
+        <v>67</v>
       </c>
       <c r="M11">
-        <v>184</v>
+        <v>72</v>
       </c>
       <c r="N11">
         <v>0.93</v>
@@ -1077,7 +1077,7 @@
         <v>1</v>
       </c>
       <c r="Q11">
-        <v>55</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1085,25 +1085,25 @@
         <v>25</v>
       </c>
       <c r="K12">
-        <v>0.7528089887640449</v>
+        <v>0.75</v>
       </c>
       <c r="L12">
-        <v>67</v>
+        <v>282</v>
       </c>
       <c r="M12">
-        <v>72</v>
+        <v>289</v>
       </c>
       <c r="N12">
-        <v>0.93</v>
+        <v>0.98</v>
       </c>
       <c r="O12">
-        <v>0.06999999999999995</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P12" t="b">
         <v>1</v>
       </c>
       <c r="Q12">
-        <v>22</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1111,25 +1111,25 @@
         <v>26</v>
       </c>
       <c r="K13">
-        <v>0.75</v>
+        <v>0.7196652719665272</v>
       </c>
       <c r="L13">
-        <v>282</v>
+        <v>172</v>
       </c>
       <c r="M13">
-        <v>289</v>
+        <v>172</v>
       </c>
       <c r="N13">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O13">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>94</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1163,25 +1163,25 @@
         <v>28</v>
       </c>
       <c r="K15">
-        <v>0.6871165644171779</v>
+        <v>0.6739130434782609</v>
       </c>
       <c r="L15">
-        <v>224</v>
+        <v>31</v>
       </c>
       <c r="M15">
-        <v>238</v>
+        <v>31</v>
       </c>
       <c r="N15">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O15">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>102</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1189,13 +1189,13 @@
         <v>29</v>
       </c>
       <c r="K16">
-        <v>0.6739130434782609</v>
+        <v>0.6588235294117647</v>
       </c>
       <c r="L16">
-        <v>31</v>
+        <v>224</v>
       </c>
       <c r="M16">
-        <v>31</v>
+        <v>224</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1207,7 +1207,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>15</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="10:17">
